--- a/media/shoblons/hospital/oth/ДТП.xlsx
+++ b/media/shoblons/hospital/oth/ДТП.xlsx
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:J31"/>
+  <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
@@ -522,7 +522,7 @@
     <row r="4" ht="12.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>За период с 21.01.2023 по 27.02.2023 г.</t>
+          <t>За период с 21.02.2023 по 27.03.2023 г.</t>
         </is>
       </c>
     </row>
@@ -588,17 +588,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>0201012786</t>
+          <t>0201035330</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>ДМИТРИЕВ Д.С</t>
+          <t>ГОЛИКОВА Г.А</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>24.05.2006</t>
+          <t>20.06.1966</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
@@ -608,18 +608,18 @@
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЯ N1</t>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>20.01.2023</t>
+          <t>21.02.2023</t>
         </is>
       </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>V03.1</t>
+          <t>V78.1</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr">
@@ -627,26 +627,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J8" s="7" t="inlineStr">
-        <is>
-          <t>шк</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>0201013851</t>
+          <t>0201023175</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>ОБЛОКУЛОВ Т.Т</t>
+          <t>БАСАРА Б.Н</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>06.04.1997</t>
+          <t>07.01.1950</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
@@ -656,18 +652,18 @@
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr">
         <is>
-          <t>22.01.2023</t>
+          <t>04.02.2023</t>
         </is>
       </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="inlineStr">
         <is>
-          <t>V42.5</t>
+          <t>V03.1</t>
         </is>
       </c>
       <c r="I9" s="7" t="inlineStr">
@@ -680,17 +676,17 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>0201016548</t>
+          <t>0201031000</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>КЛИМОВИЧ А.С</t>
+          <t>ЖАХИНА А.А</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>04.10.2012</t>
+          <t>19.07.1953</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
@@ -700,12 +696,12 @@
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЯ N1</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F10" s="7" t="inlineStr">
         <is>
-          <t>25.01.2023</t>
+          <t>15.02.2023</t>
         </is>
       </c>
       <c r="G10" s="7" t="n"/>
@@ -719,26 +715,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J10" s="7" t="inlineStr">
-        <is>
-          <t>школа 69/1</t>
-        </is>
-      </c>
+      <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>0201010781</t>
+          <t>0201033025</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>ПОСПЕЛОВА Л.Д</t>
+          <t>ЗНАК А.В</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>20.06.1946</t>
+          <t>04.10.1989</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
@@ -748,18 +740,18 @@
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="F11" s="7" t="inlineStr">
         <is>
-          <t>17.01.2023</t>
+          <t>18.02.2023</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="inlineStr">
         <is>
-          <t>V78.6</t>
+          <t>V43.5</t>
         </is>
       </c>
       <c r="I11" s="7" t="inlineStr">
@@ -767,22 +759,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>лента</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>0201010961</t>
+          <t>0201032629</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>ИБРАГИМОВ Р.Н</t>
+          <t>ЛЕБЕДЕВ Т.А</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>07.05.1987</t>
+          <t>16.02.2011</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -792,18 +788,18 @@
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
         <is>
-          <t>17.01.2023</t>
+          <t>17.02.2023</t>
         </is>
       </c>
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>V09.3</t>
         </is>
       </c>
       <c r="I12" s="7" t="inlineStr">
@@ -811,22 +807,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>ШК 48\1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>0202008562</t>
+          <t>0201032098</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>ЛОМОВА К.С</t>
+          <t>СОЛЯННИКОВ П.А</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>10.11.2007</t>
+          <t>04.03.2017</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
@@ -836,18 +836,18 @@
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЯ N2</t>
+          <t>ЧЛХ И ПЛАСТИЧ.ХИР-ИИ</t>
         </is>
       </c>
       <c r="F13" s="7" t="inlineStr">
         <is>
-          <t>27.01.2023</t>
+          <t>16.02.2023</t>
         </is>
       </c>
       <c r="G13" s="7" t="n"/>
       <c r="H13" s="7" t="inlineStr">
         <is>
-          <t>V03.1</t>
+          <t>V43.6</t>
         </is>
       </c>
       <c r="I13" s="7" t="inlineStr">
@@ -855,26 +855,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
-        <is>
-          <t>МАОУ СОШ №70</t>
-        </is>
-      </c>
+      <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>0201010717</t>
+          <t>0201030950</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>КАТАРГУЛОВ К.С</t>
+          <t>ИПАТЬЕВА Е.Ф</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>19.08.1968</t>
+          <t>15.12.1986</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
@@ -884,12 +880,12 @@
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F14" s="7" t="inlineStr">
         <is>
-          <t>17.01.2023</t>
+          <t>15.02.2023</t>
         </is>
       </c>
       <c r="G14" s="7" t="n"/>
@@ -908,17 +904,17 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>0202005291</t>
+          <t>0201031231</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>ОМЕЛЬЧЕНКО Т.А</t>
+          <t>ГРИДИНА Э.Ф</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>25.01.2012</t>
+          <t>11.07.1963</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
@@ -928,18 +924,18 @@
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F15" s="7" t="inlineStr">
         <is>
-          <t>18.01.2023</t>
+          <t>15.02.2023</t>
         </is>
       </c>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="inlineStr">
         <is>
-          <t>V03.0</t>
+          <t>V03.1</t>
         </is>
       </c>
       <c r="I15" s="7" t="inlineStr">
@@ -947,26 +943,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr">
-        <is>
-          <t>МАОУ СОШ №22</t>
-        </is>
-      </c>
+      <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>0202006232</t>
+          <t>0201037686</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>ЛАЗАРЕНКО И.А</t>
+          <t>АЛЕКСАНДРОВА В.В</t>
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>21.03.2013</t>
+          <t>08.02.1959</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
@@ -976,18 +968,18 @@
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЯ N1</t>
+          <t>АРО N3 (ЛДО)</t>
         </is>
       </c>
       <c r="F16" s="7" t="inlineStr">
         <is>
-          <t>21.01.2023</t>
+          <t>24.02.2023</t>
         </is>
       </c>
       <c r="G16" s="7" t="n"/>
       <c r="H16" s="7" t="inlineStr">
         <is>
-          <t>V03.0</t>
+          <t>V43.1</t>
         </is>
       </c>
       <c r="I16" s="7" t="inlineStr">
@@ -995,26 +987,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J16" s="7" t="inlineStr">
-        <is>
-          <t>ШК 70</t>
-        </is>
-      </c>
+      <c r="J16" s="7" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>0201239581</t>
+          <t>0201033524</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>БОЛОТОВ С.Н</t>
+          <t>АЛИУЛЛИНА К.А</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>10.05.1978</t>
+          <t>03.10.1965</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
@@ -1024,18 +1012,18 @@
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
-          <t>16.12.2022</t>
+          <t>18.02.2023</t>
         </is>
       </c>
       <c r="G17" s="7" t="n"/>
       <c r="H17" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>V09.9</t>
         </is>
       </c>
       <c r="I17" s="7" t="inlineStr">
@@ -1043,26 +1031,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J17" s="7" t="inlineStr">
-        <is>
-          <t>МОБИЛИЗОВАННЫЙ</t>
-        </is>
-      </c>
+      <c r="J17" s="7" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>0201016626</t>
+          <t>0201044484</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>ЯСТРЕБОВ И.В</t>
+          <t>ШАРАПОВ И.А</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>28.09.1981</t>
+          <t>24.10.1982</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr">
@@ -1072,12 +1056,12 @@
       </c>
       <c r="E18" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F18" s="7" t="inlineStr">
         <is>
-          <t>25.01.2023</t>
+          <t>06.03.2023</t>
         </is>
       </c>
       <c r="G18" s="7" t="n"/>
@@ -1093,24 +1077,24 @@
       </c>
       <c r="J18" s="7" t="inlineStr">
         <is>
-          <t>ТСЖ МИНСКИЙ</t>
+          <t>трс тюменьэнерго</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>0201017236</t>
+          <t>0201236705</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>РУДЕНКОВ Д.А</t>
+          <t>БУНЬКОВА А.В</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>25.01.2001</t>
+          <t>28.05.1970</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
@@ -1120,18 +1104,18 @@
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr">
         <is>
-          <t>26.01.2023</t>
+          <t>12.12.2022</t>
         </is>
       </c>
       <c r="G19" s="7" t="n"/>
       <c r="H19" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>V43.5</t>
         </is>
       </c>
       <c r="I19" s="7" t="inlineStr">
@@ -1144,17 +1128,17 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>0201020179</t>
+          <t>0201036538</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>ДАШЕВСКИЙ И.В</t>
+          <t>КУЗЬМИЦКАЯ С.Н</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>10.09.1996</t>
+          <t>12.12.1975</t>
         </is>
       </c>
       <c r="D20" s="7" t="inlineStr">
@@ -1164,18 +1148,18 @@
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F20" s="7" t="inlineStr">
         <is>
-          <t>30.01.2023</t>
+          <t>23.02.2023</t>
         </is>
       </c>
       <c r="G20" s="7" t="n"/>
       <c r="H20" s="7" t="inlineStr">
         <is>
-          <t>V09.9</t>
+          <t>V47.6</t>
         </is>
       </c>
       <c r="I20" s="7" t="inlineStr">
@@ -1188,17 +1172,17 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>0201011339</t>
+          <t>0201034482</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>АБДУЛЛАЕВА Х.У</t>
+          <t>САЛТАНОВА Е.В</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>03.05.1971</t>
+          <t>26.11.1967</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
@@ -1208,18 +1192,18 @@
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F21" s="7" t="inlineStr">
         <is>
-          <t>18.01.2023</t>
+          <t>20.02.2023</t>
         </is>
       </c>
       <c r="G21" s="7" t="n"/>
       <c r="H21" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>V40.9</t>
         </is>
       </c>
       <c r="I21" s="7" t="inlineStr">
@@ -1232,17 +1216,17 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>0201017542</t>
+          <t>0201042491</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>СИТНИКОВА Н.Ф</t>
+          <t>МУСАЕЛЯН А.Б</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>20.05.1958</t>
+          <t>24.10.1956</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
@@ -1252,18 +1236,18 @@
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="F22" s="7" t="inlineStr">
         <is>
-          <t>27.01.2023</t>
+          <t>03.03.2023</t>
         </is>
       </c>
       <c r="G22" s="7" t="n"/>
       <c r="H22" s="7" t="inlineStr">
         <is>
-          <t>V03.1</t>
+          <t>V43.5</t>
         </is>
       </c>
       <c r="I22" s="7" t="inlineStr">
@@ -1276,17 +1260,17 @@
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>0201011600</t>
+          <t>0201039636</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>КОРОЛЕВСКИХ О.О</t>
+          <t>МИХАЙЛОВА В.П</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>02.02.1989</t>
+          <t>02.09.1952</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
@@ -1296,18 +1280,18 @@
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="F23" s="7" t="inlineStr">
         <is>
-          <t>18.01.2023</t>
+          <t>27.02.2023</t>
         </is>
       </c>
       <c r="G23" s="7" t="n"/>
       <c r="H23" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>V03.1</t>
         </is>
       </c>
       <c r="I23" s="7" t="inlineStr">
@@ -1315,26 +1299,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J23" s="7" t="inlineStr">
-        <is>
-          <t>м-н Эфорил</t>
-        </is>
-      </c>
+      <c r="J23" s="7" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>0201014510</t>
+          <t>0201035053</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>УНГЕФУГ Л.Я</t>
+          <t>СОАТИЛЛОЕВ М.И</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>30.06.2002</t>
+          <t>06.10.2001</t>
         </is>
       </c>
       <c r="D24" s="7" t="inlineStr">
@@ -1349,13 +1329,13 @@
       </c>
       <c r="F24" s="7" t="inlineStr">
         <is>
-          <t>23.01.2023</t>
+          <t>20.02.2023</t>
         </is>
       </c>
       <c r="G24" s="7" t="n"/>
       <c r="H24" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>V09.3</t>
         </is>
       </c>
       <c r="I24" s="7" t="inlineStr">
@@ -1368,17 +1348,17 @@
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>0201028410</t>
+          <t>0201050533</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>ПРОКОПЬЕВА С.А</t>
+          <t>АЙВАЗЯН В.С</t>
         </is>
       </c>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>11.07.2006</t>
+          <t>21.12.1975</t>
         </is>
       </c>
       <c r="D25" s="7" t="inlineStr">
@@ -1388,18 +1368,18 @@
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЯ N1</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t>11.02.2023</t>
+          <t>14.03.2023</t>
         </is>
       </c>
       <c r="G25" s="7" t="n"/>
       <c r="H25" s="7" t="inlineStr">
         <is>
-          <t>V43.7</t>
+          <t>V42.5</t>
         </is>
       </c>
       <c r="I25" s="7" t="inlineStr">
@@ -1407,26 +1387,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J25" s="7" t="inlineStr">
-        <is>
-          <t>ШК 30</t>
-        </is>
-      </c>
+      <c r="J25" s="7" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>0201025252</t>
+          <t>0201039461</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>БРЯНЦЕВА С.П</t>
+          <t>ЯРУНОВА Г.Ф</t>
         </is>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>20.02.1955</t>
+          <t>16.06.1946</t>
         </is>
       </c>
       <c r="D26" s="7" t="inlineStr">
@@ -1441,13 +1417,13 @@
       </c>
       <c r="F26" s="7" t="inlineStr">
         <is>
-          <t>07.02.2023</t>
+          <t>27.02.2023</t>
         </is>
       </c>
       <c r="G26" s="7" t="n"/>
       <c r="H26" s="7" t="inlineStr">
         <is>
-          <t>V09.2</t>
+          <t>V78.6</t>
         </is>
       </c>
       <c r="I26" s="7" t="inlineStr">
@@ -1460,17 +1436,17 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>0201027443</t>
+          <t>0202022806</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>ЕРОФЕЕВА И.Г</t>
+          <t>ВОЛЫНКИНА В.Д</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>15.09.1971</t>
+          <t>16.08.2010</t>
         </is>
       </c>
       <c r="D27" s="7" t="inlineStr">
@@ -1480,18 +1456,18 @@
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>ЧЛХ И ПЛАСТИЧ.ХИР-ИИ</t>
+          <t>ХИРУРГИЯ N2</t>
         </is>
       </c>
       <c r="F27" s="7" t="inlineStr">
         <is>
-          <t>10.02.2023</t>
+          <t>05.03.2023</t>
         </is>
       </c>
       <c r="G27" s="7" t="n"/>
       <c r="H27" s="7" t="inlineStr">
         <is>
-          <t>V40.6</t>
+          <t>V03.1</t>
         </is>
       </c>
       <c r="I27" s="7" t="inlineStr">
@@ -1499,22 +1475,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J27" s="7" t="inlineStr"/>
+      <c r="J27" s="7" t="inlineStr">
+        <is>
+          <t>ШК 27</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>0201029772</t>
+          <t>0201038607</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>ГАМЗАЕВ Э.М</t>
+          <t>ВАКУЛЬЧИК Н.Ф</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>16.01.1959</t>
+          <t>29.03.1971</t>
         </is>
       </c>
       <c r="D28" s="7" t="inlineStr">
@@ -1524,18 +1504,18 @@
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F28" s="7" t="inlineStr">
         <is>
-          <t>13.02.2023</t>
+          <t>26.02.2023</t>
         </is>
       </c>
       <c r="G28" s="7" t="n"/>
       <c r="H28" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>V43.1</t>
         </is>
       </c>
       <c r="I28" s="7" t="inlineStr">
@@ -1543,22 +1523,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J28" s="7" t="inlineStr"/>
+      <c r="J28" s="7" t="inlineStr">
+        <is>
+          <t>ГАУЗ ТО ОЛРЦ</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>0201030943</t>
+          <t>0201037330</t>
         </is>
       </c>
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>КАТЬЯНОВ Н.И</t>
+          <t>СТАРКОВА Н.М</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>15.12.1977</t>
+          <t>05.12.1970</t>
         </is>
       </c>
       <c r="D29" s="7" t="inlineStr">
@@ -1568,18 +1552,18 @@
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F29" s="7" t="inlineStr">
         <is>
-          <t>15.02.2023</t>
+          <t>24.02.2023</t>
         </is>
       </c>
       <c r="G29" s="7" t="n"/>
       <c r="H29" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>V03.1</t>
         </is>
       </c>
       <c r="I29" s="7" t="inlineStr">
@@ -1587,27 +1571,31 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J29" s="7" t="inlineStr"/>
+      <c r="J29" s="7" t="inlineStr">
+        <is>
+          <t>ОАО ТАНДЕР</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>0201024598</t>
+          <t>0201041178</t>
         </is>
       </c>
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t>ХМЕЛЁВА Г.Н</t>
+          <t>СОАТИЛЛОЕВ М.И</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>04.07.1969</t>
+          <t>06.10.2001</t>
         </is>
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>экс</t>
+          <t>пл</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr">
@@ -1617,13 +1605,13 @@
       </c>
       <c r="F30" s="7" t="inlineStr">
         <is>
-          <t>06.02.2023</t>
+          <t>01.03.2023</t>
         </is>
       </c>
       <c r="G30" s="7" t="n"/>
       <c r="H30" s="7" t="inlineStr">
         <is>
-          <t>V44.6</t>
+          <t>V09.3</t>
         </is>
       </c>
       <c r="I30" s="7" t="inlineStr">
@@ -1631,26 +1619,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J30" s="7" t="inlineStr">
-        <is>
-          <t>ОООКокарева И.В.</t>
-        </is>
-      </c>
+      <c r="J30" s="7" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>0201020777</t>
+          <t>0202020865</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>НИКИТИНА О.А</t>
+          <t>РОППЕЛЬ А.В</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>22.12.1986</t>
+          <t>14.09.2013</t>
         </is>
       </c>
       <c r="D31" s="7" t="inlineStr">
@@ -1660,26 +1644,298 @@
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ХИРУРГИЯ N1</t>
         </is>
       </c>
       <c r="F31" s="7" t="inlineStr">
         <is>
-          <t>31.01.2023</t>
+          <t>28.02.2023</t>
         </is>
       </c>
       <c r="G31" s="7" t="n"/>
       <c r="H31" s="7" t="inlineStr">
         <is>
+          <t>V43.6</t>
+        </is>
+      </c>
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
+        </is>
+      </c>
+      <c r="J31" s="7" t="inlineStr">
+        <is>
+          <t>ШК</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>0201047162</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>МУХКАЛЕЕВА И.А</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>20.10.1979</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>экс</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="inlineStr">
+        <is>
+          <t>10.03.2023</t>
+        </is>
+      </c>
+      <c r="G32" s="7" t="n"/>
+      <c r="H32" s="7" t="inlineStr">
+        <is>
           <t>V43.5</t>
         </is>
       </c>
-      <c r="I31" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J31" s="7" t="inlineStr"/>
+      <c r="I32" s="7" t="inlineStr">
+        <is>
+          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
+        </is>
+      </c>
+      <c r="J32" s="7" t="inlineStr">
+        <is>
+          <t>ООО мир мебели</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>0201049854</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>БАТУРИНА А.М</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>25.10.2003</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>экс</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>ТРАВМА N3</t>
+        </is>
+      </c>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>14.03.2023</t>
+        </is>
+      </c>
+      <c r="G33" s="7" t="n"/>
+      <c r="H33" s="7" t="inlineStr">
+        <is>
+          <t>V48.6</t>
+        </is>
+      </c>
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
+        </is>
+      </c>
+      <c r="J33" s="7" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>0201049179</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>БАХМАНОВ А.Б</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>29.12.1960</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>экс</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="inlineStr">
+        <is>
+          <t>13.03.2023</t>
+        </is>
+      </c>
+      <c r="G34" s="7" t="n"/>
+      <c r="H34" s="7" t="n"/>
+      <c r="I34" s="7" t="inlineStr">
+        <is>
+          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
+        </is>
+      </c>
+      <c r="J34" s="7" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>0201050522</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>ДУБРОВ К.Р</t>
+        </is>
+      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>18.07.2017</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>экс</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>ОТОРИНОЛАРИНГОЛОГИЧЕ</t>
+        </is>
+      </c>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>14.03.2023</t>
+        </is>
+      </c>
+      <c r="G35" s="7" t="n"/>
+      <c r="H35" s="7" t="inlineStr">
+        <is>
+          <t>W50.4</t>
+        </is>
+      </c>
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
+        </is>
+      </c>
+      <c r="J35" s="7" t="inlineStr">
+        <is>
+          <t>ДС 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>0201048870</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>СКИПИН С.В</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>25.05.2000</t>
+        </is>
+      </c>
+      <c r="D36" s="7" t="inlineStr">
+        <is>
+          <t>экс</t>
+        </is>
+      </c>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>НЕЙРОХИРУРГИЯ</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="inlineStr">
+        <is>
+          <t>12.03.2023</t>
+        </is>
+      </c>
+      <c r="G36" s="7" t="n"/>
+      <c r="H36" s="7" t="inlineStr">
+        <is>
+          <t>V43.5</t>
+        </is>
+      </c>
+      <c r="I36" s="7" t="inlineStr">
+        <is>
+          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
+        </is>
+      </c>
+      <c r="J36" s="7" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>0201050536</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="inlineStr">
+        <is>
+          <t>КРАСИЛОВ И.Е</t>
+        </is>
+      </c>
+      <c r="C37" s="7" t="inlineStr">
+        <is>
+          <t>03.08.1986</t>
+        </is>
+      </c>
+      <c r="D37" s="7" t="inlineStr">
+        <is>
+          <t>экс</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>ТРАВМА N1</t>
+        </is>
+      </c>
+      <c r="F37" s="7" t="inlineStr">
+        <is>
+          <t>14.03.2023</t>
+        </is>
+      </c>
+      <c r="G37" s="7" t="n"/>
+      <c r="H37" s="7" t="inlineStr">
+        <is>
+          <t>V43.6</t>
+        </is>
+      </c>
+      <c r="I37" s="7" t="inlineStr">
+        <is>
+          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
+        </is>
+      </c>
+      <c r="J37" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/media/shoblons/hospital/oth/ДТП.xlsx
+++ b/media/shoblons/hospital/oth/ДТП.xlsx
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:J37"/>
+  <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
@@ -522,7 +522,7 @@
     <row r="4" ht="12.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>За период с 21.02.2023 по 27.03.2023 г.</t>
+          <t>За период с 21.03.2023 по 27.04.2023 г.</t>
         </is>
       </c>
     </row>
@@ -588,17 +588,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>0201035330</t>
+          <t>0201053845</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>ГОЛИКОВА Г.А</t>
+          <t>МОЛОТОВ И.И</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>20.06.1966</t>
+          <t>06.07.1999</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
@@ -613,13 +613,13 @@
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>21.02.2023</t>
+          <t>19.03.2023</t>
         </is>
       </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>V78.1</t>
+          <t>V43.0</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr">
@@ -632,17 +632,17 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>0201023175</t>
+          <t>0201054407</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>БАСАРА Б.Н</t>
+          <t>ЗОРИН И.С</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>07.01.1950</t>
+          <t>03.10.1994</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
@@ -657,13 +657,13 @@
       </c>
       <c r="F9" s="7" t="inlineStr">
         <is>
-          <t>04.02.2023</t>
+          <t>19.03.2023</t>
         </is>
       </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="inlineStr">
         <is>
-          <t>V03.1</t>
+          <t>V43.6</t>
         </is>
       </c>
       <c r="I9" s="7" t="inlineStr">
@@ -676,17 +676,17 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>0201031000</t>
+          <t>0201050692</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>ЖАХИНА А.А</t>
+          <t>СЕРЕНКО Т.С</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>19.07.1953</t>
+          <t>02.02.1990</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
@@ -696,18 +696,18 @@
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F10" s="7" t="inlineStr">
         <is>
-          <t>15.02.2023</t>
+          <t>14.03.2023</t>
         </is>
       </c>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>V43.5</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr">
@@ -720,17 +720,17 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>0201033025</t>
+          <t>0201053843</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>ЗНАК А.В</t>
+          <t>ЛЕОНГАРДТ С.Л</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>04.10.1989</t>
+          <t>03.06.2000</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F11" s="7" t="inlineStr">
         <is>
-          <t>18.02.2023</t>
+          <t>19.03.2023</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
@@ -759,26 +759,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J11" s="7" t="inlineStr">
-        <is>
-          <t>лента</t>
-        </is>
-      </c>
+      <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>0201032629</t>
+          <t>0201051860</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>ЛЕБЕДЕВ Т.А</t>
+          <t>ПЕТРОВА Г.Н</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>16.02.2011</t>
+          <t>15.06.1966</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -788,18 +784,18 @@
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
         <is>
-          <t>17.02.2023</t>
+          <t>16.03.2023</t>
         </is>
       </c>
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="7" t="inlineStr">
         <is>
-          <t>V09.3</t>
+          <t>V43.6</t>
         </is>
       </c>
       <c r="I12" s="7" t="inlineStr">
@@ -807,26 +803,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J12" s="7" t="inlineStr">
-        <is>
-          <t>ШК 48\1</t>
-        </is>
-      </c>
+      <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>0201032098</t>
+          <t>0201035277</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>СОЛЯННИКОВ П.А</t>
+          <t>ФОКИНА Д.А</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>04.03.2017</t>
+          <t>11.04.2010</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
@@ -836,18 +828,18 @@
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>ЧЛХ И ПЛАСТИЧ.ХИР-ИИ</t>
+          <t>ХИРУРГИЯ N1</t>
         </is>
       </c>
       <c r="F13" s="7" t="inlineStr">
         <is>
-          <t>16.02.2023</t>
+          <t>21.02.2023</t>
         </is>
       </c>
       <c r="G13" s="7" t="n"/>
       <c r="H13" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>Y03.4</t>
         </is>
       </c>
       <c r="I13" s="7" t="inlineStr">
@@ -855,22 +847,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t>ШК 9</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>0201030950</t>
+          <t>0202028619</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>ИПАТЬЕВА Е.Ф</t>
+          <t>АБРАМКИН И.А</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>15.12.1986</t>
+          <t>24.04.2005</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
@@ -880,18 +876,18 @@
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
         </is>
       </c>
       <c r="F14" s="7" t="inlineStr">
         <is>
-          <t>15.02.2023</t>
+          <t>21.03.2023</t>
         </is>
       </c>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>W22.4</t>
         </is>
       </c>
       <c r="I14" s="7" t="inlineStr">
@@ -899,22 +895,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t>ТЛК</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>0201031231</t>
+          <t>0201047225</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>ГРИДИНА Э.Ф</t>
+          <t>ШАЯХМЕТОВ Х.Ш</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>11.07.1963</t>
+          <t>02.03.1961</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
@@ -924,12 +924,12 @@
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F15" s="7" t="inlineStr">
         <is>
-          <t>15.02.2023</t>
+          <t>10.03.2023</t>
         </is>
       </c>
       <c r="G15" s="7" t="n"/>
@@ -948,17 +948,17 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>0201037686</t>
+          <t>0201064964</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>АЛЕКСАНДРОВА В.В</t>
+          <t>ХАСАНОВ Р.Т</t>
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>08.02.1959</t>
+          <t>29.09.2004</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
@@ -968,18 +968,18 @@
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>АРО N3 (ЛДО)</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F16" s="7" t="inlineStr">
         <is>
-          <t>24.02.2023</t>
+          <t>02.04.2023</t>
         </is>
       </c>
       <c r="G16" s="7" t="n"/>
       <c r="H16" s="7" t="inlineStr">
         <is>
-          <t>V43.1</t>
+          <t>V09.3</t>
         </is>
       </c>
       <c r="I16" s="7" t="inlineStr">
@@ -992,17 +992,17 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>0201033524</t>
+          <t>0201048972</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>АЛИУЛЛИНА К.А</t>
+          <t>ХАЙРУЛИН Т.Ф</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>03.10.1965</t>
+          <t>18.01.1984</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
@@ -1017,13 +1017,13 @@
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
-          <t>18.02.2023</t>
+          <t>12.03.2023</t>
         </is>
       </c>
       <c r="G17" s="7" t="n"/>
       <c r="H17" s="7" t="inlineStr">
         <is>
-          <t>V09.9</t>
+          <t>W17.8</t>
         </is>
       </c>
       <c r="I17" s="7" t="inlineStr">
@@ -1036,17 +1036,17 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>0201044484</t>
+          <t>0201067765</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>ШАРАПОВ И.А</t>
+          <t>ПОЙДЮК С.И</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>24.10.1982</t>
+          <t>01.10.1957</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F18" s="7" t="inlineStr">
         <is>
-          <t>06.03.2023</t>
+          <t>06.04.2023</t>
         </is>
       </c>
       <c r="G18" s="7" t="n"/>
@@ -1075,26 +1075,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J18" s="7" t="inlineStr">
-        <is>
-          <t>трс тюменьэнерго</t>
-        </is>
-      </c>
+      <c r="J18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>0201236705</t>
+          <t>0201063386</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>БУНЬКОВА А.В</t>
+          <t>КЕЙЛЬ А.А</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>28.05.1970</t>
+          <t>14.01.1975</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
@@ -1104,12 +1100,12 @@
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr">
         <is>
-          <t>12.12.2022</t>
+          <t>31.03.2023</t>
         </is>
       </c>
       <c r="G19" s="7" t="n"/>
@@ -1128,17 +1124,17 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>0201036538</t>
+          <t>0201052899</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>КУЗЬМИЦКАЯ С.Н</t>
+          <t>НОМЕРОВСКИЙ Н.Н</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>12.12.1975</t>
+          <t>09.02.1983</t>
         </is>
       </c>
       <c r="D20" s="7" t="inlineStr">
@@ -1153,13 +1149,13 @@
       </c>
       <c r="F20" s="7" t="inlineStr">
         <is>
-          <t>23.02.2023</t>
+          <t>17.03.2023</t>
         </is>
       </c>
       <c r="G20" s="7" t="n"/>
       <c r="H20" s="7" t="inlineStr">
         <is>
-          <t>V47.6</t>
+          <t>V43.5</t>
         </is>
       </c>
       <c r="I20" s="7" t="inlineStr">
@@ -1172,17 +1168,17 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>0201034482</t>
+          <t>0201056723</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>САЛТАНОВА Е.В</t>
+          <t>БАГЛАЕВ А.С</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>26.11.1967</t>
+          <t>02.11.1956</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
@@ -1192,18 +1188,18 @@
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="F21" s="7" t="inlineStr">
         <is>
-          <t>20.02.2023</t>
+          <t>22.03.2023</t>
         </is>
       </c>
       <c r="G21" s="7" t="n"/>
       <c r="H21" s="7" t="inlineStr">
         <is>
-          <t>V40.9</t>
+          <t>V43.6</t>
         </is>
       </c>
       <c r="I21" s="7" t="inlineStr">
@@ -1216,17 +1212,17 @@
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>0201042491</t>
+          <t>0201066420</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>МУСАЕЛЯН А.Б</t>
+          <t>СТЕНЮШКИНА А.А</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>24.10.1956</t>
+          <t>23.11.2010</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
@@ -1236,18 +1232,18 @@
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
+          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
         </is>
       </c>
       <c r="F22" s="7" t="inlineStr">
         <is>
-          <t>03.03.2023</t>
+          <t>04.04.2023</t>
         </is>
       </c>
       <c r="G22" s="7" t="n"/>
       <c r="H22" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>V03.1</t>
         </is>
       </c>
       <c r="I22" s="7" t="inlineStr">
@@ -1255,22 +1251,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr">
+        <is>
+          <t>сош 45</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>0201039636</t>
+          <t>0201056879</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>МИХАЙЛОВА В.П</t>
+          <t>КУДРЯШОВ Д.К</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>02.09.1952</t>
+          <t>28.07.2006</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
@@ -1280,18 +1280,18 @@
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
+          <t>ХИРУРГИЯ N1</t>
         </is>
       </c>
       <c r="F23" s="7" t="inlineStr">
         <is>
-          <t>27.02.2023</t>
+          <t>22.03.2023</t>
         </is>
       </c>
       <c r="G23" s="7" t="n"/>
       <c r="H23" s="7" t="inlineStr">
         <is>
-          <t>V03.1</t>
+          <t>V28.1</t>
         </is>
       </c>
       <c r="I23" s="7" t="inlineStr">
@@ -1299,22 +1299,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr">
+        <is>
+          <t>КОЛ</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>0201035053</t>
+          <t>0201065694</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>СОАТИЛЛОЕВ М.И</t>
+          <t>СУРЖЕНКО В.Ю</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>06.10.2001</t>
+          <t>16.03.1984</t>
         </is>
       </c>
       <c r="D24" s="7" t="inlineStr">
@@ -1329,13 +1333,13 @@
       </c>
       <c r="F24" s="7" t="inlineStr">
         <is>
-          <t>20.02.2023</t>
+          <t>03.04.2023</t>
         </is>
       </c>
       <c r="G24" s="7" t="n"/>
       <c r="H24" s="7" t="inlineStr">
         <is>
-          <t>V09.3</t>
+          <t>V29.8</t>
         </is>
       </c>
       <c r="I24" s="7" t="inlineStr">
@@ -1343,43 +1347,47 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr">
+        <is>
+          <t>сумо</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>0201050533</t>
+          <t>0201067772</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>АЙВАЗЯН В.С</t>
+          <t>ПОЙДЮК Н.Н</t>
         </is>
       </c>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>21.12.1975</t>
+          <t>30.05.1959</t>
         </is>
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>экс</t>
+          <t>пл</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t>14.03.2023</t>
+          <t>06.04.2023</t>
         </is>
       </c>
       <c r="G25" s="7" t="n"/>
       <c r="H25" s="7" t="inlineStr">
         <is>
-          <t>V42.5</t>
+          <t>V43.6</t>
         </is>
       </c>
       <c r="I25" s="7" t="inlineStr">
@@ -1392,17 +1400,17 @@
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>0201039461</t>
+          <t>0201058052</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>ЯРУНОВА Г.Ф</t>
+          <t>СИРИНА А.Е</t>
         </is>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>16.06.1946</t>
+          <t>25.04.2003</t>
         </is>
       </c>
       <c r="D26" s="7" t="inlineStr">
@@ -1412,18 +1420,18 @@
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F26" s="7" t="inlineStr">
         <is>
-          <t>27.02.2023</t>
+          <t>24.03.2023</t>
         </is>
       </c>
       <c r="G26" s="7" t="n"/>
       <c r="H26" s="7" t="inlineStr">
         <is>
-          <t>V78.6</t>
+          <t>V43.5</t>
         </is>
       </c>
       <c r="I26" s="7" t="inlineStr">
@@ -1436,17 +1444,17 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>0202022806</t>
+          <t>0201051316</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>ВОЛЫНКИНА В.Д</t>
+          <t>БАХТИН А.В</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>16.08.2010</t>
+          <t>24.02.1982</t>
         </is>
       </c>
       <c r="D27" s="7" t="inlineStr">
@@ -1456,12 +1464,12 @@
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЯ N2</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F27" s="7" t="inlineStr">
         <is>
-          <t>05.03.2023</t>
+          <t>15.03.2023</t>
         </is>
       </c>
       <c r="G27" s="7" t="n"/>
@@ -1477,24 +1485,24 @@
       </c>
       <c r="J27" s="7" t="inlineStr">
         <is>
-          <t>ШК 27</t>
+          <t>ООО Страна</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>0201038607</t>
+          <t>0201071113</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>ВАКУЛЬЧИК Н.Ф</t>
+          <t>САФРОНОВА К.А</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>29.03.1971</t>
+          <t>18.11.1993</t>
         </is>
       </c>
       <c r="D28" s="7" t="inlineStr">
@@ -1504,18 +1512,18 @@
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F28" s="7" t="inlineStr">
         <is>
-          <t>26.02.2023</t>
+          <t>11.04.2023</t>
         </is>
       </c>
       <c r="G28" s="7" t="n"/>
       <c r="H28" s="7" t="inlineStr">
         <is>
-          <t>V43.1</t>
+          <t>V43.5</t>
         </is>
       </c>
       <c r="I28" s="7" t="inlineStr">
@@ -1523,26 +1531,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J28" s="7" t="inlineStr">
-        <is>
-          <t>ГАУЗ ТО ОЛРЦ</t>
-        </is>
-      </c>
+      <c r="J28" s="7" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>0201037330</t>
+          <t>0201055914</t>
         </is>
       </c>
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>СТАРКОВА Н.М</t>
+          <t>ЯРОШ А.А</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>05.12.1970</t>
+          <t>17.12.1971</t>
         </is>
       </c>
       <c r="D29" s="7" t="inlineStr">
@@ -1552,18 +1556,18 @@
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F29" s="7" t="inlineStr">
         <is>
-          <t>24.02.2023</t>
+          <t>21.03.2023</t>
         </is>
       </c>
       <c r="G29" s="7" t="n"/>
       <c r="H29" s="7" t="inlineStr">
         <is>
-          <t>V03.1</t>
+          <t>V44.0</t>
         </is>
       </c>
       <c r="I29" s="7" t="inlineStr">
@@ -1573,45 +1577,45 @@
       </c>
       <c r="J29" s="7" t="inlineStr">
         <is>
-          <t>ОАО ТАНДЕР</t>
+          <t>МО МВД РФ З-Уовский</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>0201041178</t>
+          <t>0201074993</t>
         </is>
       </c>
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t>СОАТИЛЛОЕВ М.И</t>
+          <t>ЕЩЕРКИНА Е.А</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>06.10.2001</t>
+          <t>06.10.1939</t>
         </is>
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>пл</t>
+          <t>экс</t>
         </is>
       </c>
       <c r="E30" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F30" s="7" t="inlineStr">
         <is>
-          <t>01.03.2023</t>
+          <t>16.04.2023</t>
         </is>
       </c>
       <c r="G30" s="7" t="n"/>
       <c r="H30" s="7" t="inlineStr">
         <is>
-          <t>V09.3</t>
+          <t>V03.1</t>
         </is>
       </c>
       <c r="I30" s="7" t="inlineStr">
@@ -1619,22 +1623,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J30" s="7" t="inlineStr"/>
+      <c r="J30" s="7" t="inlineStr">
+        <is>
+          <t>неработает</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>0202020865</t>
+          <t>0201067222</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>РОППЕЛЬ А.В</t>
+          <t>БАЯНОВА А.К</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>14.09.2013</t>
+          <t>21.12.1934</t>
         </is>
       </c>
       <c r="D31" s="7" t="inlineStr">
@@ -1644,18 +1652,18 @@
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЯ N1</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F31" s="7" t="inlineStr">
         <is>
-          <t>28.02.2023</t>
+          <t>05.04.2023</t>
         </is>
       </c>
       <c r="G31" s="7" t="n"/>
       <c r="H31" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>V70.6</t>
         </is>
       </c>
       <c r="I31" s="7" t="inlineStr">
@@ -1663,279 +1671,7 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J31" s="7" t="inlineStr">
-        <is>
-          <t>ШК</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>0201047162</t>
-        </is>
-      </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>МУХКАЛЕЕВА И.А</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>20.10.1979</t>
-        </is>
-      </c>
-      <c r="D32" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E32" s="7" t="inlineStr">
-        <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
-        </is>
-      </c>
-      <c r="F32" s="7" t="inlineStr">
-        <is>
-          <t>10.03.2023</t>
-        </is>
-      </c>
-      <c r="G32" s="7" t="n"/>
-      <c r="H32" s="7" t="inlineStr">
-        <is>
-          <t>V43.5</t>
-        </is>
-      </c>
-      <c r="I32" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J32" s="7" t="inlineStr">
-        <is>
-          <t>ООО мир мебели</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>0201049854</t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="inlineStr">
-        <is>
-          <t>БАТУРИНА А.М</t>
-        </is>
-      </c>
-      <c r="C33" s="7" t="inlineStr">
-        <is>
-          <t>25.10.2003</t>
-        </is>
-      </c>
-      <c r="D33" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E33" s="7" t="inlineStr">
-        <is>
-          <t>ТРАВМА N3</t>
-        </is>
-      </c>
-      <c r="F33" s="7" t="inlineStr">
-        <is>
-          <t>14.03.2023</t>
-        </is>
-      </c>
-      <c r="G33" s="7" t="n"/>
-      <c r="H33" s="7" t="inlineStr">
-        <is>
-          <t>V48.6</t>
-        </is>
-      </c>
-      <c r="I33" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J33" s="7" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t>0201049179</t>
-        </is>
-      </c>
-      <c r="B34" s="7" t="inlineStr">
-        <is>
-          <t>БАХМАНОВ А.Б</t>
-        </is>
-      </c>
-      <c r="C34" s="7" t="inlineStr">
-        <is>
-          <t>29.12.1960</t>
-        </is>
-      </c>
-      <c r="D34" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E34" s="7" t="inlineStr">
-        <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
-        </is>
-      </c>
-      <c r="F34" s="7" t="inlineStr">
-        <is>
-          <t>13.03.2023</t>
-        </is>
-      </c>
-      <c r="G34" s="7" t="n"/>
-      <c r="H34" s="7" t="n"/>
-      <c r="I34" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J34" s="7" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t>0201050522</t>
-        </is>
-      </c>
-      <c r="B35" s="7" t="inlineStr">
-        <is>
-          <t>ДУБРОВ К.Р</t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>18.07.2017</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>ОТОРИНОЛАРИНГОЛОГИЧЕ</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>14.03.2023</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="n"/>
-      <c r="H35" s="7" t="inlineStr">
-        <is>
-          <t>W50.4</t>
-        </is>
-      </c>
-      <c r="I35" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J35" s="7" t="inlineStr">
-        <is>
-          <t>ДС 42</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7" t="inlineStr">
-        <is>
-          <t>0201048870</t>
-        </is>
-      </c>
-      <c r="B36" s="7" t="inlineStr">
-        <is>
-          <t>СКИПИН С.В</t>
-        </is>
-      </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>25.05.2000</t>
-        </is>
-      </c>
-      <c r="D36" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E36" s="7" t="inlineStr">
-        <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
-        </is>
-      </c>
-      <c r="F36" s="7" t="inlineStr">
-        <is>
-          <t>12.03.2023</t>
-        </is>
-      </c>
-      <c r="G36" s="7" t="n"/>
-      <c r="H36" s="7" t="inlineStr">
-        <is>
-          <t>V43.5</t>
-        </is>
-      </c>
-      <c r="I36" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J36" s="7" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="inlineStr">
-        <is>
-          <t>0201050536</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="inlineStr">
-        <is>
-          <t>КРАСИЛОВ И.Е</t>
-        </is>
-      </c>
-      <c r="C37" s="7" t="inlineStr">
-        <is>
-          <t>03.08.1986</t>
-        </is>
-      </c>
-      <c r="D37" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E37" s="7" t="inlineStr">
-        <is>
-          <t>ТРАВМА N1</t>
-        </is>
-      </c>
-      <c r="F37" s="7" t="inlineStr">
-        <is>
-          <t>14.03.2023</t>
-        </is>
-      </c>
-      <c r="G37" s="7" t="n"/>
-      <c r="H37" s="7" t="inlineStr">
-        <is>
-          <t>V43.6</t>
-        </is>
-      </c>
-      <c r="I37" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J37" s="7" t="inlineStr"/>
+      <c r="J31" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/media/shoblons/hospital/oth/ДТП.xlsx
+++ b/media/shoblons/hospital/oth/ДТП.xlsx
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:J31"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
@@ -522,7 +522,7 @@
     <row r="4" ht="12.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>За период с 21.03.2023 по 27.04.2023 г.</t>
+          <t>За период с 21.04.2023 по 25.05.2023 г.</t>
         </is>
       </c>
     </row>
@@ -588,17 +588,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>0201053845</t>
+          <t>0201080967</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>МОЛОТОВ И.И</t>
+          <t>ПЛАТОНОВА Т.А</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>06.07.1999</t>
+          <t>22.01.1961</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
@@ -608,18 +608,18 @@
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>19.03.2023</t>
+          <t>25.04.2023</t>
         </is>
       </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>V43.0</t>
+          <t>V77.6</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr">
@@ -632,17 +632,17 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>0201054407</t>
+          <t>0201045563</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>ЗОРИН И.С</t>
+          <t>ГАЛАКОВА С.А</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>03.10.1994</t>
+          <t>13.05.1984</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr">
         <is>
-          <t>19.03.2023</t>
+          <t>07.03.2023</t>
         </is>
       </c>
       <c r="G9" s="7" t="n"/>
@@ -676,17 +676,17 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>0201050692</t>
+          <t>0201075227</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>СЕРЕНКО Т.С</t>
+          <t>КУРЛОВИЧ Е.А</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>02.02.1990</t>
+          <t>28.09.1996</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
@@ -696,18 +696,18 @@
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F10" s="7" t="inlineStr">
         <is>
-          <t>14.03.2023</t>
+          <t>16.04.2023</t>
         </is>
       </c>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>V19.8</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr">
@@ -720,38 +720,38 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>0201053843</t>
+          <t>0201082753</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>ЛЕОНГАРДТ С.Л</t>
+          <t>ЗАХАРОВА Д.Р</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>03.06.2000</t>
+          <t>23.03.1999</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>экс</t>
+          <t>пл</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F11" s="7" t="inlineStr">
         <is>
-          <t>19.03.2023</t>
+          <t>27.04.2023</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>V44.6</t>
         </is>
       </c>
       <c r="I11" s="7" t="inlineStr">
@@ -764,17 +764,17 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>0201051860</t>
+          <t>0201079077</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>ПЕТРОВА Г.Н</t>
+          <t>ЧУВАШЕНКО А.А</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>15.06.1966</t>
+          <t>01.02.1983</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -784,18 +784,18 @@
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
         <is>
-          <t>16.03.2023</t>
+          <t>22.04.2023</t>
         </is>
       </c>
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>V29.8</t>
         </is>
       </c>
       <c r="I12" s="7" t="inlineStr">
@@ -808,17 +808,17 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>0201035277</t>
+          <t>0201078591</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>ФОКИНА Д.А</t>
+          <t>ФАИЗОВА Е.Т</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>11.04.2010</t>
+          <t>07.02.2004</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
@@ -828,18 +828,18 @@
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЯ N1</t>
+          <t>ЧЛХ И ПЛАСТИЧ.ХИР-ИИ</t>
         </is>
       </c>
       <c r="F13" s="7" t="inlineStr">
         <is>
-          <t>21.02.2023</t>
+          <t>21.04.2023</t>
         </is>
       </c>
       <c r="G13" s="7" t="n"/>
       <c r="H13" s="7" t="inlineStr">
         <is>
-          <t>Y03.4</t>
+          <t>V43.6</t>
         </is>
       </c>
       <c r="I13" s="7" t="inlineStr">
@@ -847,26 +847,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
-        <is>
-          <t>ШК 9</t>
-        </is>
-      </c>
+      <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>0202028619</t>
+          <t>0201084972</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>АБРАМКИН И.А</t>
+          <t>РОЖЕНЦОВ А.Б</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>24.04.2005</t>
+          <t>08.04.1977</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
@@ -876,18 +872,18 @@
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
+          <t>АРО N3 (ЛДО)</t>
         </is>
       </c>
       <c r="F14" s="7" t="inlineStr">
         <is>
-          <t>21.03.2023</t>
+          <t>30.04.2023</t>
         </is>
       </c>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="inlineStr">
         <is>
-          <t>W22.4</t>
+          <t>V28.0</t>
         </is>
       </c>
       <c r="I14" s="7" t="inlineStr">
@@ -895,26 +891,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J14" s="7" t="inlineStr">
-        <is>
-          <t>ТЛК</t>
-        </is>
-      </c>
+      <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>0201047225</t>
+          <t>0202043990</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>ШАЯХМЕТОВ Х.Ш</t>
+          <t>ПАНАСЮК К.В</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>02.03.1961</t>
+          <t>18.07.2007</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
@@ -924,18 +916,18 @@
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
         </is>
       </c>
       <c r="F15" s="7" t="inlineStr">
         <is>
-          <t>10.03.2023</t>
+          <t>29.04.2023</t>
         </is>
       </c>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="inlineStr">
         <is>
-          <t>V03.1</t>
+          <t>V18.0</t>
         </is>
       </c>
       <c r="I15" s="7" t="inlineStr">
@@ -943,22 +935,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>ШК 43</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>0201064964</t>
+          <t>0202044880</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>ХАСАНОВ Р.Т</t>
+          <t>БЕЛОВА Д.М</t>
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>29.09.2004</t>
+          <t>12.07.2013</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
@@ -968,18 +964,18 @@
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
         </is>
       </c>
       <c r="F16" s="7" t="inlineStr">
         <is>
-          <t>02.04.2023</t>
+          <t>01.05.2023</t>
         </is>
       </c>
       <c r="G16" s="7" t="n"/>
       <c r="H16" s="7" t="inlineStr">
         <is>
-          <t>V09.3</t>
+          <t>V42.7</t>
         </is>
       </c>
       <c r="I16" s="7" t="inlineStr">
@@ -987,22 +983,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr">
+        <is>
+          <t>ШК 5</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>0201048972</t>
+          <t>0201087631</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>ХАЙРУЛИН Т.Ф</t>
+          <t>ЗЕЙТУНЯН Т.А</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>18.01.1984</t>
+          <t>26.12.1975</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
@@ -1012,18 +1012,18 @@
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
-          <t>12.03.2023</t>
+          <t>03.05.2023</t>
         </is>
       </c>
       <c r="G17" s="7" t="n"/>
       <c r="H17" s="7" t="inlineStr">
         <is>
-          <t>W17.8</t>
+          <t>V48.6</t>
         </is>
       </c>
       <c r="I17" s="7" t="inlineStr">
@@ -1036,17 +1036,17 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>0201067765</t>
+          <t>0201090311</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>ПОЙДЮК С.И</t>
+          <t>ЦАРЕВ А.А</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>01.10.1957</t>
+          <t>28.05.2001</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr">
@@ -1056,18 +1056,18 @@
       </c>
       <c r="E18" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="F18" s="7" t="inlineStr">
         <is>
-          <t>06.04.2023</t>
+          <t>07.05.2023</t>
         </is>
       </c>
       <c r="G18" s="7" t="n"/>
       <c r="H18" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>V43</t>
         </is>
       </c>
       <c r="I18" s="7" t="inlineStr">
@@ -1080,17 +1080,17 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>0201063386</t>
+          <t>0201092295</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>КЕЙЛЬ А.А</t>
+          <t>РЫЧКОВ С.Н</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>14.01.1975</t>
+          <t>31.05.1959</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
@@ -1100,18 +1100,18 @@
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr">
         <is>
-          <t>31.03.2023</t>
+          <t>09.05.2023</t>
         </is>
       </c>
       <c r="G19" s="7" t="n"/>
       <c r="H19" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>V09.3</t>
         </is>
       </c>
       <c r="I19" s="7" t="inlineStr">
@@ -1124,17 +1124,17 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>0201052899</t>
+          <t>0201081391</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>НОМЕРОВСКИЙ Н.Н</t>
+          <t>КОРОБКИНА Т.В</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>09.02.1983</t>
+          <t>04.06.1984</t>
         </is>
       </c>
       <c r="D20" s="7" t="inlineStr">
@@ -1149,13 +1149,13 @@
       </c>
       <c r="F20" s="7" t="inlineStr">
         <is>
-          <t>17.03.2023</t>
+          <t>25.04.2023</t>
         </is>
       </c>
       <c r="G20" s="7" t="n"/>
       <c r="H20" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>V78.6</t>
         </is>
       </c>
       <c r="I20" s="7" t="inlineStr">
@@ -1168,17 +1168,17 @@
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>0201056723</t>
+          <t>0202049853</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>БАГЛАЕВ А.С</t>
+          <t>ЕРМАКОВ Д.М</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>02.11.1956</t>
+          <t>03.08.2005</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
@@ -1188,18 +1188,18 @@
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
+          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
         </is>
       </c>
       <c r="F21" s="7" t="inlineStr">
         <is>
-          <t>22.03.2023</t>
+          <t>12.05.2023</t>
         </is>
       </c>
       <c r="G21" s="7" t="n"/>
       <c r="H21" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>V78.4</t>
         </is>
       </c>
       <c r="I21" s="7" t="inlineStr">
@@ -1207,22 +1207,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr"/>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>ТИУ</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>0201066420</t>
+          <t>0201087088</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>СТЕНЮШКИНА А.А</t>
+          <t>ЛЕБЕДКА С.П</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>23.11.2010</t>
+          <t>27.06.2006</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
@@ -1232,18 +1236,18 @@
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
+          <t>ХИРУРГИЯ N1</t>
         </is>
       </c>
       <c r="F22" s="7" t="inlineStr">
         <is>
-          <t>04.04.2023</t>
+          <t>02.05.2023</t>
         </is>
       </c>
       <c r="G22" s="7" t="n"/>
       <c r="H22" s="7" t="inlineStr">
         <is>
-          <t>V03.1</t>
+          <t>V42.2</t>
         </is>
       </c>
       <c r="I22" s="7" t="inlineStr">
@@ -1253,24 +1257,24 @@
       </c>
       <c r="J22" s="7" t="inlineStr">
         <is>
-          <t>сош 45</t>
+          <t>ШК</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>0201056879</t>
+          <t>0202046840</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>КУДРЯШОВ Д.К</t>
+          <t>КОСМЫЛЕВА Ж.В</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>28.07.2006</t>
+          <t>27.03.2012</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
@@ -1280,18 +1284,18 @@
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЯ N1</t>
+          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
         </is>
       </c>
       <c r="F23" s="7" t="inlineStr">
         <is>
-          <t>22.03.2023</t>
+          <t>05.05.2023</t>
         </is>
       </c>
       <c r="G23" s="7" t="n"/>
       <c r="H23" s="7" t="inlineStr">
         <is>
-          <t>V28.1</t>
+          <t>V19.8</t>
         </is>
       </c>
       <c r="I23" s="7" t="inlineStr">
@@ -1301,24 +1305,24 @@
       </c>
       <c r="J23" s="7" t="inlineStr">
         <is>
-          <t>КОЛ</t>
+          <t>ШК 27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>0201065694</t>
+          <t>0201082416</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>СУРЖЕНКО В.Ю</t>
+          <t>ГААК Н.Г</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>16.03.1984</t>
+          <t>21.01.1979</t>
         </is>
       </c>
       <c r="D24" s="7" t="inlineStr">
@@ -1328,18 +1332,18 @@
       </c>
       <c r="E24" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F24" s="7" t="inlineStr">
         <is>
-          <t>03.04.2023</t>
+          <t>26.04.2023</t>
         </is>
       </c>
       <c r="G24" s="7" t="n"/>
       <c r="H24" s="7" t="inlineStr">
         <is>
-          <t>V29.8</t>
+          <t>V43.5</t>
         </is>
       </c>
       <c r="I24" s="7" t="inlineStr">
@@ -1347,31 +1351,27 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J24" s="7" t="inlineStr">
-        <is>
-          <t>сумо</t>
-        </is>
-      </c>
+      <c r="J24" s="7" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>0201067772</t>
+          <t>0201088777</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>ПОЙДЮК Н.Н</t>
+          <t>ФАЙЗУЛЛИН Р.А</t>
         </is>
       </c>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>30.05.1959</t>
+          <t>01.01.1974</t>
         </is>
       </c>
       <c r="D25" s="7" t="inlineStr">
         <is>
-          <t>пл</t>
+          <t>экс</t>
         </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
@@ -1381,15 +1381,11 @@
       </c>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t>06.04.2023</t>
+          <t>05.05.2023</t>
         </is>
       </c>
       <c r="G25" s="7" t="n"/>
-      <c r="H25" s="7" t="inlineStr">
-        <is>
-          <t>V43.6</t>
-        </is>
-      </c>
+      <c r="H25" s="7" t="n"/>
       <c r="I25" s="7" t="inlineStr">
         <is>
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
@@ -1400,17 +1396,17 @@
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>0201058052</t>
+          <t>0201077950</t>
         </is>
       </c>
       <c r="B26" s="7" t="inlineStr">
         <is>
-          <t>СИРИНА А.Е</t>
+          <t>ЦИТОВИЧ Е.А</t>
         </is>
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>25.04.2003</t>
+          <t>15.06.2003</t>
         </is>
       </c>
       <c r="D26" s="7" t="inlineStr">
@@ -1420,12 +1416,12 @@
       </c>
       <c r="E26" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F26" s="7" t="inlineStr">
         <is>
-          <t>24.03.2023</t>
+          <t>20.04.2023</t>
         </is>
       </c>
       <c r="G26" s="7" t="n"/>
@@ -1444,17 +1440,17 @@
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>0201051316</t>
+          <t>0201090313</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>БАХТИН А.В</t>
+          <t>НОВОСЕЛОВ П.А</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>24.02.1982</t>
+          <t>30.06.2012</t>
         </is>
       </c>
       <c r="D27" s="7" t="inlineStr">
@@ -1464,18 +1460,18 @@
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>ХИРУРГИЯ N1</t>
         </is>
       </c>
       <c r="F27" s="7" t="inlineStr">
         <is>
-          <t>15.03.2023</t>
+          <t>07.05.2023</t>
         </is>
       </c>
       <c r="G27" s="7" t="n"/>
       <c r="H27" s="7" t="inlineStr">
         <is>
-          <t>V03.1</t>
+          <t>V43.9</t>
         </is>
       </c>
       <c r="I27" s="7" t="inlineStr">
@@ -1485,24 +1481,24 @@
       </c>
       <c r="J27" s="7" t="inlineStr">
         <is>
-          <t>ООО Страна</t>
+          <t>ШК</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>0201071113</t>
+          <t>0201088386</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>САФРОНОВА К.А</t>
+          <t>ИВАНЧЕНКО К.В</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>18.11.1993</t>
+          <t>17.01.2000</t>
         </is>
       </c>
       <c r="D28" s="7" t="inlineStr">
@@ -1512,18 +1508,18 @@
       </c>
       <c r="E28" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F28" s="7" t="inlineStr">
         <is>
-          <t>11.04.2023</t>
+          <t>04.05.2023</t>
         </is>
       </c>
       <c r="G28" s="7" t="n"/>
       <c r="H28" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>V18.1</t>
         </is>
       </c>
       <c r="I28" s="7" t="inlineStr">
@@ -1536,17 +1532,17 @@
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>0201055914</t>
+          <t>0201088111</t>
         </is>
       </c>
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>ЯРОШ А.А</t>
+          <t>ЕЛИСЕЕВ В.С</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>17.12.1971</t>
+          <t>08.06.2000</t>
         </is>
       </c>
       <c r="D29" s="7" t="inlineStr">
@@ -1561,13 +1557,13 @@
       </c>
       <c r="F29" s="7" t="inlineStr">
         <is>
-          <t>21.03.2023</t>
+          <t>04.05.2023</t>
         </is>
       </c>
       <c r="G29" s="7" t="n"/>
       <c r="H29" s="7" t="inlineStr">
         <is>
-          <t>V44.0</t>
+          <t>V18.0</t>
         </is>
       </c>
       <c r="I29" s="7" t="inlineStr">
@@ -1575,26 +1571,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J29" s="7" t="inlineStr">
-        <is>
-          <t>МО МВД РФ З-Уовский</t>
-        </is>
-      </c>
+      <c r="J29" s="7" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>0201074993</t>
+          <t>0201088564</t>
         </is>
       </c>
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t>ЕЩЕРКИНА Е.А</t>
+          <t>БАРАБАШ Л.П</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>06.10.1939</t>
+          <t>07.01.1966</t>
         </is>
       </c>
       <c r="D30" s="7" t="inlineStr">
@@ -1609,13 +1601,13 @@
       </c>
       <c r="F30" s="7" t="inlineStr">
         <is>
-          <t>16.04.2023</t>
+          <t>04.05.2023</t>
         </is>
       </c>
       <c r="G30" s="7" t="n"/>
       <c r="H30" s="7" t="inlineStr">
         <is>
-          <t>V03.1</t>
+          <t>V23.0</t>
         </is>
       </c>
       <c r="I30" s="7" t="inlineStr">
@@ -1623,26 +1615,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J30" s="7" t="inlineStr">
-        <is>
-          <t>неработает</t>
-        </is>
-      </c>
+      <c r="J30" s="7" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>0201067222</t>
+          <t>0202045541</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>БАЯНОВА А.К</t>
+          <t>ШАХМАРДАНОВ В.Д</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>21.12.1934</t>
+          <t>23.05.2012</t>
         </is>
       </c>
       <c r="D31" s="7" t="inlineStr">
@@ -1652,18 +1640,18 @@
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
         </is>
       </c>
       <c r="F31" s="7" t="inlineStr">
         <is>
-          <t>05.04.2023</t>
+          <t>02.05.2023</t>
         </is>
       </c>
       <c r="G31" s="7" t="n"/>
       <c r="H31" s="7" t="inlineStr">
         <is>
-          <t>V70.6</t>
+          <t>V03.1</t>
         </is>
       </c>
       <c r="I31" s="7" t="inlineStr">
@@ -1671,7 +1659,195 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J31" s="7" t="inlineStr"/>
+      <c r="J31" s="7" t="inlineStr">
+        <is>
+          <t>шк</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>0201091067</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>ГОНЧАРОВ В.П</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>16.11.1978</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>экс</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="inlineStr">
+        <is>
+          <t>07.05.2023</t>
+        </is>
+      </c>
+      <c r="G32" s="7" t="n"/>
+      <c r="H32" s="7" t="inlineStr">
+        <is>
+          <t>V19.9</t>
+        </is>
+      </c>
+      <c r="I32" s="7" t="inlineStr">
+        <is>
+          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
+        </is>
+      </c>
+      <c r="J32" s="7" t="inlineStr">
+        <is>
+          <t>ООО СТАНДАРТХИМПРОДУКТ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>0201091351</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>ПОВОЛЯЕВ В.В</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>21.09.1983</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>экс</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>ТРАВМА N3</t>
+        </is>
+      </c>
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>08.05.2023</t>
+        </is>
+      </c>
+      <c r="G33" s="7" t="n"/>
+      <c r="H33" s="7" t="inlineStr">
+        <is>
+          <t>V87.9</t>
+        </is>
+      </c>
+      <c r="I33" s="7" t="inlineStr">
+        <is>
+          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
+        </is>
+      </c>
+      <c r="J33" s="7" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>0201095274</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>АРТЁМОВ Е.А</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>22.07.2010</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>экс</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>ХИРУРГИЯ N2</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="inlineStr">
+        <is>
+          <t>13.05.2023</t>
+        </is>
+      </c>
+      <c r="G34" s="7" t="n"/>
+      <c r="H34" s="7" t="inlineStr">
+        <is>
+          <t>V13.4</t>
+        </is>
+      </c>
+      <c r="I34" s="7" t="inlineStr">
+        <is>
+          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
+        </is>
+      </c>
+      <c r="J34" s="7" t="inlineStr">
+        <is>
+          <t>ШК 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>0201094264</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="inlineStr">
+        <is>
+          <t>ЗЕМЕРОВ А.И</t>
+        </is>
+      </c>
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>18.03.2003</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>экс</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>АРО N3 (ЛДО)</t>
+        </is>
+      </c>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>12.05.2023</t>
+        </is>
+      </c>
+      <c r="G35" s="7" t="n"/>
+      <c r="H35" s="7" t="inlineStr">
+        <is>
+          <t>V44.0</t>
+        </is>
+      </c>
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
+        </is>
+      </c>
+      <c r="J35" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/media/shoblons/hospital/oth/ДТП.xlsx
+++ b/media/shoblons/hospital/oth/ДТП.xlsx
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:J35"/>
+  <dimension ref="A2:J25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
@@ -522,7 +522,7 @@
     <row r="4" ht="12.8" customHeight="1" s="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>За период с 21.04.2023 по 25.05.2023 г.</t>
+          <t>За период с 21.05.2023 по 06.06.2023 г.</t>
         </is>
       </c>
     </row>
@@ -588,17 +588,17 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>0201080967</t>
+          <t>0201102042</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>ПЛАТОНОВА Т.А</t>
+          <t>АДИЕВ К.Р</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>22.01.1961</t>
+          <t>01.03.2015</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
@@ -608,18 +608,18 @@
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ХИРУРГИЯ N2</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>25.04.2023</t>
+          <t>22.05.2023</t>
         </is>
       </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>V77.6</t>
+          <t>V98</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr">
@@ -627,22 +627,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>ШК</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>0201045563</t>
+          <t>0201097398</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>ГАЛАКОВА С.А</t>
+          <t>ПЕТРЕНКО П.В</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>13.05.1984</t>
+          <t>02.12.2009</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
@@ -652,18 +656,18 @@
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr">
         <is>
-          <t>07.03.2023</t>
+          <t>16.05.2023</t>
         </is>
       </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>V09.3</t>
         </is>
       </c>
       <c r="I9" s="7" t="inlineStr">
@@ -671,22 +675,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t>шк 57</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>0201075227</t>
+          <t>0201095788</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>КУРЛОВИЧ Е.А</t>
+          <t>СОСНОВЦЕВ О.Ф</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>28.09.1996</t>
+          <t>09.06.1961</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
@@ -696,18 +704,18 @@
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F10" s="7" t="inlineStr">
         <is>
-          <t>16.04.2023</t>
+          <t>14.05.2023</t>
         </is>
       </c>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="inlineStr">
         <is>
-          <t>V19.8</t>
+          <t>V01.0</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr">
@@ -720,38 +728,38 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>0201082753</t>
+          <t>0202051282</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>ЗАХАРОВА Д.Р</t>
+          <t>МУХОМЕДЬЯРОВ Р.Р</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>23.03.1999</t>
+          <t>06.11.2010</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>пл</t>
+          <t>экс</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
         </is>
       </c>
       <c r="F11" s="7" t="inlineStr">
         <is>
-          <t>27.04.2023</t>
+          <t>16.05.2023</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="inlineStr">
         <is>
-          <t>V44.6</t>
+          <t>V19.8</t>
         </is>
       </c>
       <c r="I11" s="7" t="inlineStr">
@@ -759,22 +767,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>ШК</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>0201079077</t>
+          <t>0201086904</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>ЧУВАШЕНКО А.А</t>
+          <t>МАЛАХОВА А.О</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>01.02.1983</t>
+          <t>31.12.2005</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -784,18 +796,18 @@
       </c>
       <c r="E12" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>ХИРУРГИЯ N1</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr">
         <is>
-          <t>22.04.2023</t>
+          <t>02.05.2023</t>
         </is>
       </c>
       <c r="G12" s="7" t="n"/>
       <c r="H12" s="7" t="inlineStr">
         <is>
-          <t>V29.8</t>
+          <t>V43.6</t>
         </is>
       </c>
       <c r="I12" s="7" t="inlineStr">
@@ -803,22 +815,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>ШК</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>0201078591</t>
+          <t>0201084824</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>ФАИЗОВА Е.Т</t>
+          <t>КОРМИНА Е.В</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>07.02.2004</t>
+          <t>28.02.1968</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
@@ -828,18 +844,18 @@
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>ЧЛХ И ПЛАСТИЧ.ХИР-ИИ</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F13" s="7" t="inlineStr">
         <is>
-          <t>21.04.2023</t>
+          <t>30.04.2023</t>
         </is>
       </c>
       <c r="G13" s="7" t="n"/>
       <c r="H13" s="7" t="inlineStr">
         <is>
-          <t>V43.6</t>
+          <t>V43.5</t>
         </is>
       </c>
       <c r="I13" s="7" t="inlineStr">
@@ -847,22 +863,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t>ПАО запсибкомбанк</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>0201084972</t>
+          <t>0201103695</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>РОЖЕНЦОВ А.Б</t>
+          <t>ТИЛИМБАЕВ А.У</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>08.04.1977</t>
+          <t>26.04.1984</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
@@ -872,18 +892,18 @@
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>АРО N3 (ЛДО)</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F14" s="7" t="inlineStr">
         <is>
-          <t>30.04.2023</t>
+          <t>24.05.2023</t>
         </is>
       </c>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="inlineStr">
         <is>
-          <t>V28.0</t>
+          <t>V43.5</t>
         </is>
       </c>
       <c r="I14" s="7" t="inlineStr">
@@ -896,17 +916,17 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>0202043990</t>
+          <t>0202054559</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>ПАНАСЮК К.В</t>
+          <t>ГАМЕРШМИДТ А.Р</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>18.07.2007</t>
+          <t>12.12.2006</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
@@ -916,18 +936,18 @@
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
+          <t>ХИРУРГИЯ N2</t>
         </is>
       </c>
       <c r="F15" s="7" t="inlineStr">
         <is>
-          <t>29.04.2023</t>
+          <t>24.05.2023</t>
         </is>
       </c>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="inlineStr">
         <is>
-          <t>V18.0</t>
+          <t>V86.5</t>
         </is>
       </c>
       <c r="I15" s="7" t="inlineStr">
@@ -937,24 +957,24 @@
       </c>
       <c r="J15" s="7" t="inlineStr">
         <is>
-          <t>ШК 43</t>
+          <t>ЛИЦ 93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>0202044880</t>
+          <t>0201100238</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>БЕЛОВА Д.М</t>
+          <t>ПАДУМ А.В</t>
         </is>
       </c>
       <c r="C16" s="7" t="inlineStr">
         <is>
-          <t>12.07.2013</t>
+          <t>01.01.1988</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr">
@@ -964,18 +984,18 @@
       </c>
       <c r="E16" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
+          <t>УРОЛОГИЧЕСКОЕ</t>
         </is>
       </c>
       <c r="F16" s="7" t="inlineStr">
         <is>
-          <t>01.05.2023</t>
+          <t>20.05.2023</t>
         </is>
       </c>
       <c r="G16" s="7" t="n"/>
       <c r="H16" s="7" t="inlineStr">
         <is>
-          <t>V42.7</t>
+          <t>V02.1</t>
         </is>
       </c>
       <c r="I16" s="7" t="inlineStr">
@@ -983,26 +1003,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J16" s="7" t="inlineStr">
-        <is>
-          <t>ШК 5</t>
-        </is>
-      </c>
+      <c r="J16" s="7" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>0201087631</t>
+          <t>0201101281</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>ЗЕЙТУНЯН Т.А</t>
+          <t>СУКИАСЯН М.Э</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr">
         <is>
-          <t>26.12.1975</t>
+          <t>07.12.1994</t>
         </is>
       </c>
       <c r="D17" s="7" t="inlineStr">
@@ -1012,18 +1028,18 @@
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F17" s="7" t="inlineStr">
         <is>
-          <t>03.05.2023</t>
+          <t>21.05.2023</t>
         </is>
       </c>
       <c r="G17" s="7" t="n"/>
       <c r="H17" s="7" t="inlineStr">
         <is>
-          <t>V48.6</t>
+          <t>V43.6</t>
         </is>
       </c>
       <c r="I17" s="7" t="inlineStr">
@@ -1036,17 +1052,17 @@
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>0201090311</t>
+          <t>0201094976</t>
         </is>
       </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>ЦАРЕВ А.А</t>
+          <t>ШУШАРИНА Н.Я</t>
         </is>
       </c>
       <c r="C18" s="7" t="inlineStr">
         <is>
-          <t>28.05.2001</t>
+          <t>14.03.1957</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr">
@@ -1056,18 +1072,18 @@
       </c>
       <c r="E18" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F18" s="7" t="inlineStr">
         <is>
-          <t>07.05.2023</t>
+          <t>13.05.2023</t>
         </is>
       </c>
       <c r="G18" s="7" t="n"/>
       <c r="H18" s="7" t="inlineStr">
         <is>
-          <t>V43</t>
+          <t>V09.1</t>
         </is>
       </c>
       <c r="I18" s="7" t="inlineStr">
@@ -1080,17 +1096,17 @@
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>0201092295</t>
+          <t>0201099575</t>
         </is>
       </c>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>РЫЧКОВ С.Н</t>
+          <t>БОЙСАФАРОВ Х.Б</t>
         </is>
       </c>
       <c r="C19" s="7" t="inlineStr">
         <is>
-          <t>31.05.1959</t>
+          <t>25.06.1974</t>
         </is>
       </c>
       <c r="D19" s="7" t="inlineStr">
@@ -1100,18 +1116,18 @@
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr">
         <is>
-          <t>09.05.2023</t>
+          <t>19.05.2023</t>
         </is>
       </c>
       <c r="G19" s="7" t="n"/>
       <c r="H19" s="7" t="inlineStr">
         <is>
-          <t>V09.3</t>
+          <t>V43.5</t>
         </is>
       </c>
       <c r="I19" s="7" t="inlineStr">
@@ -1124,17 +1140,17 @@
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>0201081391</t>
+          <t>0201103408</t>
         </is>
       </c>
       <c r="B20" s="7" t="inlineStr">
         <is>
-          <t>КОРОБКИНА Т.В</t>
+          <t>КВАШНИН А.П</t>
         </is>
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>04.06.1984</t>
+          <t>01.09.1967</t>
         </is>
       </c>
       <c r="D20" s="7" t="inlineStr">
@@ -1144,18 +1160,18 @@
       </c>
       <c r="E20" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N1</t>
+          <t>ХИРУРГИЧЕСКОЕ N1</t>
         </is>
       </c>
       <c r="F20" s="7" t="inlineStr">
         <is>
-          <t>25.04.2023</t>
+          <t>24.05.2023</t>
         </is>
       </c>
       <c r="G20" s="7" t="n"/>
       <c r="H20" s="7" t="inlineStr">
         <is>
-          <t>V78.6</t>
+          <t>V29.8</t>
         </is>
       </c>
       <c r="I20" s="7" t="inlineStr">
@@ -1163,22 +1179,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J20" s="7" t="inlineStr"/>
+      <c r="J20" s="7" t="inlineStr">
+        <is>
+          <t>ао тпатп 1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>0202049853</t>
+          <t>0201102777</t>
         </is>
       </c>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>ЕРМАКОВ Д.М</t>
+          <t>ХАЛИЛОВ Н.Ш</t>
         </is>
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>03.08.2005</t>
+          <t>24.02.2007</t>
         </is>
       </c>
       <c r="D21" s="7" t="inlineStr">
@@ -1188,18 +1208,18 @@
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
+          <t>ХИРУРГИЯ N1</t>
         </is>
       </c>
       <c r="F21" s="7" t="inlineStr">
         <is>
-          <t>12.05.2023</t>
+          <t>23.05.2023</t>
         </is>
       </c>
       <c r="G21" s="7" t="n"/>
       <c r="H21" s="7" t="inlineStr">
         <is>
-          <t>V78.4</t>
+          <t>V18.0</t>
         </is>
       </c>
       <c r="I21" s="7" t="inlineStr">
@@ -1209,24 +1229,24 @@
       </c>
       <c r="J21" s="7" t="inlineStr">
         <is>
-          <t>ТИУ</t>
+          <t>ШК 92</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>0201087088</t>
+          <t>0201104889</t>
         </is>
       </c>
       <c r="B22" s="7" t="inlineStr">
         <is>
-          <t>ЛЕБЕДКА С.П</t>
+          <t>ЗИМИНА Н.Я</t>
         </is>
       </c>
       <c r="C22" s="7" t="inlineStr">
         <is>
-          <t>27.06.2006</t>
+          <t>16.09.1952</t>
         </is>
       </c>
       <c r="D22" s="7" t="inlineStr">
@@ -1236,18 +1256,18 @@
       </c>
       <c r="E22" s="7" t="inlineStr">
         <is>
-          <t>ХИРУРГИЯ N1</t>
+          <t>ТРАВМА N3</t>
         </is>
       </c>
       <c r="F22" s="7" t="inlineStr">
         <is>
-          <t>02.05.2023</t>
+          <t>26.05.2023</t>
         </is>
       </c>
       <c r="G22" s="7" t="n"/>
       <c r="H22" s="7" t="inlineStr">
         <is>
-          <t>V42.2</t>
+          <t>V43.6</t>
         </is>
       </c>
       <c r="I22" s="7" t="inlineStr">
@@ -1255,26 +1275,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J22" s="7" t="inlineStr">
-        <is>
-          <t>ШК</t>
-        </is>
-      </c>
+      <c r="J22" s="7" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>0202046840</t>
+          <t>0201102962</t>
         </is>
       </c>
       <c r="B23" s="7" t="inlineStr">
         <is>
-          <t>КОСМЫЛЕВА Ж.В</t>
+          <t>НОВЫХ И.А</t>
         </is>
       </c>
       <c r="C23" s="7" t="inlineStr">
         <is>
-          <t>27.03.2012</t>
+          <t>29.03.1991</t>
         </is>
       </c>
       <c r="D23" s="7" t="inlineStr">
@@ -1284,18 +1300,18 @@
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
+          <t>ТРАВМА N1</t>
         </is>
       </c>
       <c r="F23" s="7" t="inlineStr">
         <is>
-          <t>05.05.2023</t>
+          <t>23.05.2023</t>
         </is>
       </c>
       <c r="G23" s="7" t="n"/>
       <c r="H23" s="7" t="inlineStr">
         <is>
-          <t>V19.8</t>
+          <t>V29.8</t>
         </is>
       </c>
       <c r="I23" s="7" t="inlineStr">
@@ -1303,26 +1319,22 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J23" s="7" t="inlineStr">
-        <is>
-          <t>ШК 27</t>
-        </is>
-      </c>
+      <c r="J23" s="7" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>0201082416</t>
+          <t>0202054256</t>
         </is>
       </c>
       <c r="B24" s="7" t="inlineStr">
         <is>
-          <t>ГААК Н.Г</t>
+          <t>ТАГАЕВА А.А</t>
         </is>
       </c>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>21.01.1979</t>
+          <t>17.11.2015</t>
         </is>
       </c>
       <c r="D24" s="7" t="inlineStr">
@@ -1332,18 +1344,18 @@
       </c>
       <c r="E24" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>ХИРУРГИЯ N1</t>
         </is>
       </c>
       <c r="F24" s="7" t="inlineStr">
         <is>
-          <t>26.04.2023</t>
+          <t>23.05.2023</t>
         </is>
       </c>
       <c r="G24" s="7" t="n"/>
       <c r="H24" s="7" t="inlineStr">
         <is>
-          <t>V43.5</t>
+          <t>V03.1</t>
         </is>
       </c>
       <c r="I24" s="7" t="inlineStr">
@@ -1351,22 +1363,26 @@
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
-      <c r="J24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr">
+        <is>
+          <t>ШК 40</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>0201088777</t>
+          <t>0201102093</t>
         </is>
       </c>
       <c r="B25" s="7" t="inlineStr">
         <is>
-          <t>ФАЙЗУЛЛИН Р.А</t>
+          <t>КОКОРИНА А.М</t>
         </is>
       </c>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>01.01.1974</t>
+          <t>25.09.2001</t>
         </is>
       </c>
       <c r="D25" s="7" t="inlineStr">
@@ -1376,478 +1392,26 @@
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>ТРАВМА N3</t>
+          <t>НЕЙРОХИРУРГИЯ</t>
         </is>
       </c>
       <c r="F25" s="7" t="inlineStr">
         <is>
-          <t>05.05.2023</t>
+          <t>22.05.2023</t>
         </is>
       </c>
       <c r="G25" s="7" t="n"/>
-      <c r="H25" s="7" t="n"/>
+      <c r="H25" s="7" t="inlineStr">
+        <is>
+          <t>V43.6</t>
+        </is>
+      </c>
       <c r="I25" s="7" t="inlineStr">
         <is>
           <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
         </is>
       </c>
       <c r="J25" s="7" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>0201077950</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="inlineStr">
-        <is>
-          <t>ЦИТОВИЧ Е.А</t>
-        </is>
-      </c>
-      <c r="C26" s="7" t="inlineStr">
-        <is>
-          <t>15.06.2003</t>
-        </is>
-      </c>
-      <c r="D26" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="inlineStr">
-        <is>
-          <t>НЕЙРОХИРУРГИЯ</t>
-        </is>
-      </c>
-      <c r="F26" s="7" t="inlineStr">
-        <is>
-          <t>20.04.2023</t>
-        </is>
-      </c>
-      <c r="G26" s="7" t="n"/>
-      <c r="H26" s="7" t="inlineStr">
-        <is>
-          <t>V43.5</t>
-        </is>
-      </c>
-      <c r="I26" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J26" s="7" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>0201090313</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="inlineStr">
-        <is>
-          <t>НОВОСЕЛОВ П.А</t>
-        </is>
-      </c>
-      <c r="C27" s="7" t="inlineStr">
-        <is>
-          <t>30.06.2012</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="inlineStr">
-        <is>
-          <t>ХИРУРГИЯ N1</t>
-        </is>
-      </c>
-      <c r="F27" s="7" t="inlineStr">
-        <is>
-          <t>07.05.2023</t>
-        </is>
-      </c>
-      <c r="G27" s="7" t="n"/>
-      <c r="H27" s="7" t="inlineStr">
-        <is>
-          <t>V43.9</t>
-        </is>
-      </c>
-      <c r="I27" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J27" s="7" t="inlineStr">
-        <is>
-          <t>ШК</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>0201088386</t>
-        </is>
-      </c>
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>ИВАНЧЕНКО К.В</t>
-        </is>
-      </c>
-      <c r="C28" s="7" t="inlineStr">
-        <is>
-          <t>17.01.2000</t>
-        </is>
-      </c>
-      <c r="D28" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E28" s="7" t="inlineStr">
-        <is>
-          <t>ТРАВМА N3</t>
-        </is>
-      </c>
-      <c r="F28" s="7" t="inlineStr">
-        <is>
-          <t>04.05.2023</t>
-        </is>
-      </c>
-      <c r="G28" s="7" t="n"/>
-      <c r="H28" s="7" t="inlineStr">
-        <is>
-          <t>V18.1</t>
-        </is>
-      </c>
-      <c r="I28" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J28" s="7" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>0201088111</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="inlineStr">
-        <is>
-          <t>ЕЛИСЕЕВ В.С</t>
-        </is>
-      </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>08.06.2000</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>ТРАВМА N3</t>
-        </is>
-      </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>04.05.2023</t>
-        </is>
-      </c>
-      <c r="G29" s="7" t="n"/>
-      <c r="H29" s="7" t="inlineStr">
-        <is>
-          <t>V18.0</t>
-        </is>
-      </c>
-      <c r="I29" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J29" s="7" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>0201088564</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="inlineStr">
-        <is>
-          <t>БАРАБАШ Л.П</t>
-        </is>
-      </c>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>07.01.1966</t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>ТРАВМА N3</t>
-        </is>
-      </c>
-      <c r="F30" s="7" t="inlineStr">
-        <is>
-          <t>04.05.2023</t>
-        </is>
-      </c>
-      <c r="G30" s="7" t="n"/>
-      <c r="H30" s="7" t="inlineStr">
-        <is>
-          <t>V23.0</t>
-        </is>
-      </c>
-      <c r="I30" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J30" s="7" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>0202045541</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="inlineStr">
-        <is>
-          <t>ШАХМАРДАНОВ В.Д</t>
-        </is>
-      </c>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>23.05.2012</t>
-        </is>
-      </c>
-      <c r="D31" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E31" s="7" t="inlineStr">
-        <is>
-          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
-        </is>
-      </c>
-      <c r="F31" s="7" t="inlineStr">
-        <is>
-          <t>02.05.2023</t>
-        </is>
-      </c>
-      <c r="G31" s="7" t="n"/>
-      <c r="H31" s="7" t="inlineStr">
-        <is>
-          <t>V03.1</t>
-        </is>
-      </c>
-      <c r="I31" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J31" s="7" t="inlineStr">
-        <is>
-          <t>шк</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>0201091067</t>
-        </is>
-      </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>ГОНЧАРОВ В.П</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>16.11.1978</t>
-        </is>
-      </c>
-      <c r="D32" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E32" s="7" t="inlineStr">
-        <is>
-          <t>ХИРУРГИЧЕСКОЕ N1</t>
-        </is>
-      </c>
-      <c r="F32" s="7" t="inlineStr">
-        <is>
-          <t>07.05.2023</t>
-        </is>
-      </c>
-      <c r="G32" s="7" t="n"/>
-      <c r="H32" s="7" t="inlineStr">
-        <is>
-          <t>V19.9</t>
-        </is>
-      </c>
-      <c r="I32" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J32" s="7" t="inlineStr">
-        <is>
-          <t>ООО СТАНДАРТХИМПРОДУКТ</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>0201091351</t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="inlineStr">
-        <is>
-          <t>ПОВОЛЯЕВ В.В</t>
-        </is>
-      </c>
-      <c r="C33" s="7" t="inlineStr">
-        <is>
-          <t>21.09.1983</t>
-        </is>
-      </c>
-      <c r="D33" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E33" s="7" t="inlineStr">
-        <is>
-          <t>ТРАВМА N3</t>
-        </is>
-      </c>
-      <c r="F33" s="7" t="inlineStr">
-        <is>
-          <t>08.05.2023</t>
-        </is>
-      </c>
-      <c r="G33" s="7" t="n"/>
-      <c r="H33" s="7" t="inlineStr">
-        <is>
-          <t>V87.9</t>
-        </is>
-      </c>
-      <c r="I33" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J33" s="7" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t>0201095274</t>
-        </is>
-      </c>
-      <c r="B34" s="7" t="inlineStr">
-        <is>
-          <t>АРТЁМОВ Е.А</t>
-        </is>
-      </c>
-      <c r="C34" s="7" t="inlineStr">
-        <is>
-          <t>22.07.2010</t>
-        </is>
-      </c>
-      <c r="D34" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E34" s="7" t="inlineStr">
-        <is>
-          <t>ХИРУРГИЯ N2</t>
-        </is>
-      </c>
-      <c r="F34" s="7" t="inlineStr">
-        <is>
-          <t>13.05.2023</t>
-        </is>
-      </c>
-      <c r="G34" s="7" t="n"/>
-      <c r="H34" s="7" t="inlineStr">
-        <is>
-          <t>V13.4</t>
-        </is>
-      </c>
-      <c r="I34" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J34" s="7" t="inlineStr">
-        <is>
-          <t>ШК 22</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t>0201094264</t>
-        </is>
-      </c>
-      <c r="B35" s="7" t="inlineStr">
-        <is>
-          <t>ЗЕМЕРОВ А.И</t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>18.03.2003</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>экс</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>АРО N3 (ЛДО)</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>12.05.2023</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="n"/>
-      <c r="H35" s="7" t="inlineStr">
-        <is>
-          <t>V44.0</t>
-        </is>
-      </c>
-      <c r="I35" s="7" t="inlineStr">
-        <is>
-          <t>ДОРОЖНО - ТРАНСПОРТНАЯ</t>
-        </is>
-      </c>
-      <c r="J35" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
